--- a/DOCUMENTACIÓN_G2/ELICITACIÓN/1.3 HISTORIA DE USUARIOS/G2_Matriz de Marco de Trabajo HU Plantilla.xlsx
+++ b/DOCUMENTACIÓN_G2/ELICITACIÓN/1.3 HISTORIA DE USUARIOS/G2_Matriz de Marco de Trabajo HU Plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LABS-ESPE\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EDA5AE-052F-48BD-A6F0-D7E43FA46854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482BFD7-92B9-4B88-8E09-9D5DC86E82E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -146,18 +146,8 @@
     <t>PRUEBA</t>
   </si>
   <si>
-    <t>Este proyecto busca resolver un problema real dentro del ámbito automotriz,
-proporcionando una herramienta moderna, ágil y confiable para la administración de
-inventarios.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> muchos talleres automotrices mantienen su inventario de
 repuestos mediante métodos manuales o registros en cuadernos</t>
-  </si>
-  <si>
-    <t>Ante la necesidad de mejorar la eficiencia, se propone el desarrollo de una
-aplicación multiplataforma que permita gestionar, registrar y controlar repuestos de
-manera automatizada.</t>
   </si>
   <si>
     <t>Andres Vasquez</t>
@@ -180,11 +170,17 @@
 final.</t>
   </si>
   <si>
-    <t>Darwin Tapia,
-Alex
-Chuquimarca,
-Ederson
-Gualoto</t>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Darwin Tapia</t>
+  </si>
+  <si>
+    <t>Ante la necesidad de mejorar la eficiencia de gestionar, registrar y controlar repuestos de
+manera automatizada.</t>
+  </si>
+  <si>
+    <t>Para resolver un problema real dentro del ámbito automotriz, proporcionando una herramienta moderna, ágil y confiable.</t>
   </si>
 </sst>
 </file>
@@ -785,15 +781,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -818,41 +818,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,6 +853,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,6 +867,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,7 +1221,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1370,27 +1366,30 @@
       <c r="Z5" s="26"/>
     </row>
     <row r="6" spans="1:26" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
+      <c r="B6" s="39" t="str">
+        <f>'Historia de Usuario'!C10</f>
+        <v>REQ001</v>
+      </c>
       <c r="C6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="39" t="s">
+      <c r="G6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>38</v>
-      </c>
       <c r="H6" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J6" s="40">
         <v>44250</v>
@@ -1402,7 +1401,7 @@
         <v>17</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="39"/>
       <c r="O6" s="39" t="s">
@@ -7560,7 +7559,7 @@
   <dimension ref="A2:Z1020"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:O24"/>
+      <selection activeCell="M15" sqref="M15:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7587,23 +7586,23 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -7657,15 +7656,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -7681,17 +7680,15 @@
         <v>15</v>
       </c>
       <c r="D10" s="16"/>
-      <c r="E10" s="66" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,5,0)</f>
-        <v>#N/A</v>
+      <c r="E10" s="68" t="s">
+        <v>35</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="66" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,11,0)</f>
-        <v>#N/A</v>
+      <c r="H10" s="68" t="s">
+        <v>39</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="17"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -7736,15 +7733,15 @@
         <v>27</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="17"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -7766,22 +7763,21 @@
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="15" t="e">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O21,8,0)</f>
-        <v>#N/A</v>
+      <c r="C13" s="15">
+        <v>2</v>
       </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="66" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,10,0)</f>
-        <v>#N/A</v>
+      <c r="E13" s="68" t="str">
+        <f>'Formato descripción HU'!K6</f>
+        <v>Alta</v>
       </c>
-      <c r="F13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="66" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,7,0)</f>
-        <v>#N/A</v>
+      <c r="H13" s="68" t="str">
+        <f>'Formato descripción HU'!H6</f>
+        <v>Darwin Tapia</v>
       </c>
-      <c r="I13" s="65"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="17"/>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -7834,31 +7830,37 @@
       <c r="C15" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="83" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,3,0)</f>
-        <v>#N/A</v>
+      <c r="D15" s="73" t="str">
+        <f>'Formato descripción HU'!D6</f>
+        <v>Ante la necesidad de mejorar la eficiencia de gestionar, registrar y controlar repuestos de
+manera automatizada.</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="42"/>
       <c r="G15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="83" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,4,0)</f>
-        <v>#N/A</v>
+      <c r="H15" s="73" t="str">
+        <f>'Formato descripción HU'!E6</f>
+        <v>Para resolver un problema real dentro del ámbito automotriz, proporcionando una herramienta moderna, ágil y confiable.</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="84"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="42"/>
       <c r="L15" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="49" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,6,0)</f>
-        <v>#N/A</v>
+      <c r="M15" s="84" t="str">
+        <f>'Formato descripción HU'!G6</f>
+        <v>Aplicando fases
+de análisis,
+diseño,
+desarrollo,
+pruebas e
+implementación.</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -7874,19 +7876,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="42"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="86"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -7902,19 +7904,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="42"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="88"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="78"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="57"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -7957,42 +7959,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="58" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,14,0)</f>
-        <v>#N/A</v>
+      <c r="D19" s="50"/>
+      <c r="E19" s="85" t="str">
+        <f>'Formato descripción HU'!O6</f>
+        <v xml:space="preserve">Acceso al Sistema </v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="60"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="1"/>
     </row>
@@ -8017,29 +8019,25 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="76" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,12,0)</f>
-        <v>#N/A</v>
+      <c r="D22" s="50"/>
+      <c r="E22" s="91" t="s">
+        <v>38</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="57"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="70"/>
-      <c r="L22" s="79" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O21,13,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="70"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -8055,19 +8053,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="75"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="55"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -8083,19 +8081,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="72"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -9674,6 +9672,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9690,11 +9693,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
